--- a/data/long_bre/P25A_N-Edad-long_bre.xlsx
+++ b/data/long_bre/P25A_N-Edad-long_bre.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -712,7 +712,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -808,7 +808,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -908,7 +908,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1004,7 +1004,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1100,7 +1100,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1296,7 +1296,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1392,7 +1392,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1588,7 +1588,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1684,7 +1684,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -1880,7 +1880,7 @@
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C43" s="5" t="n">
@@ -1976,7 +1976,7 @@
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C49" s="5" t="n">
@@ -2172,7 +2172,7 @@
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -2268,7 +2268,7 @@
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C55" s="5" t="n">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C58" s="5" t="n">
@@ -2464,7 +2464,7 @@
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C61" s="5" t="n">
@@ -2560,7 +2560,7 @@
       <c r="A64" s="1" t="n"/>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C64" s="5" t="n">
